--- a/Computers.xlsx
+++ b/Computers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoa\Desktop\classes2021\Dissertation\spreadsheet_processes\blockly-spaces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B400698-BC44-4568-A57B-E40BF6D117CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA65F90-E0C7-4808-84B4-0F438210FCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14145" windowHeight="10620" xr2:uid="{33A273B8-9DDE-401A-AA38-7FD745FF72BA}"/>
+    <workbookView xWindow="4650" yWindow="300" windowWidth="14145" windowHeight="10620" xr2:uid="{33A273B8-9DDE-401A-AA38-7FD745FF72BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,10 +424,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/Computers.xlsx
+++ b/Computers.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoa\Desktop\classes2021\Dissertation\spreadsheet_processes\blockly-spaces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugogiao\OneDrive - VG\Ambiente de Trabalho\blockly-spaces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA65F90-E0C7-4808-84B4-0F438210FCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77C02B8-80E5-4DC8-B178-6F731FB01719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="300" windowWidth="14145" windowHeight="10620" xr2:uid="{33A273B8-9DDE-401A-AA38-7FD745FF72BA}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{33A273B8-9DDE-401A-AA38-7FD745FF72BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -45,12 +43,6 @@
     <t>Labor</t>
   </si>
   <si>
-    <t>Resources_A</t>
-  </si>
-  <si>
-    <t>Resources_B</t>
-  </si>
-  <si>
     <t>Available</t>
   </si>
   <si>
@@ -70,14 +62,28 @@
   </si>
   <si>
     <t>Profit</t>
+  </si>
+  <si>
+    <t>Costs_Materials</t>
+  </si>
+  <si>
+    <t>Costs_Labor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,8 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -421,88 +429,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF2CC0E-CEA3-4673-BC3A-9A909F6EF0AA}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>960</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>3400</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>26</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>960</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>28</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>